--- a/imageCreationExcel/back/113/113_1.xlsx
+++ b/imageCreationExcel/back/113/113_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9909355611338384</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6448209959600767</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9.848130486772114</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_contrast0.991_gamma0.645_equalization9.848.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -533,34 +533,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7463994859505297</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2708336541564615</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.326886059527103</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_I_gamma0.746_sharpness0.271_equalization9.327.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22.97641321391149</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8897558028367727</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8490060728117134</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_brightness22.976_contrast0.89_sharpness0.849.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6953870885724168</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9321579974329952</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27.30156671912228</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_gamma0.695_sharpness0.932_equalization27.302.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8820822983058511</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7582137258875222</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.14307999655869</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_contrast0.882_sharpness0.758_equalization12.143.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.046959192842444</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8801553324453386</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10.78351928909093</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_I_contrast1.047_sharpness0.88_equalization10.784.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.021387022191026</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1988087378317759</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18.96422563875169</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_contrast1.021_sharpness0.199_equalization18.964.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8100298089858603</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07248674272409739</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.48026182379763</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_gamma0.81_sharpness0.072_equalization11.48.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.550394126630262</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6213830855587148</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.4494163566822573</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_brightness4.55_gamma0.621_sharpness0.449.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.061806445985297</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.3867608476469264</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>25.89689158515544</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_contrast1.062_sharpness0.387_equalization25.897.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9558679699003998</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7519177316084812</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9764551506860033</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_S_contrast0.956_gamma0.752_sharpness0.976.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.14713451938398</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.860922202375759</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2499417837307719</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_brightness28.147_contrast0.861_sharpness0.25.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.081550918637246</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.012223015044696</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.50022834919461</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_contrast1.082_gamma1.012_equalization5.5.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21.96837539514622</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.071832694434512</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5261797874515508</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_brightness21.968_contrast1.072_gamma0.526.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8770143071800464</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5268813990851702</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18.82234130515559</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_8_gamma0.877_sharpness0.527_equalization18.822.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>27.44206897452096</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9737634996565387</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.3554696170946832</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_B_brightness27.442_contrast0.974_sharpness0.355.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.010848813936863</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5100739311370275</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.2629040695469025</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_contrast1.011_gamma0.51_sharpness0.263.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.86392917342864</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.140233626180444</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.7508971220429286</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_brightness10.864_contrast1.14_gamma0.751.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8804882344169288</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9072076788020929</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>21.34985675446705</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_contrast0.88_sharpness0.907_equalization21.35.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.243482403089304</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9526123754970715</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7494579916614695</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_0_brightness2.243_gamma0.953_sharpness0.749.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1331,11 +1331,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8047022864060066</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.83692141234467</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.284763262989838</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_8_contrast0.805_gamma0.837_sharpness0.285.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.165907673229382</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6693799642950182</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>23.5047701267484</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_C_contrast1.166_gamma0.669_equalization23.505.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22.36630898656841</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.89134204445111</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9495810090372423</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_brightness22.366_contrast0.891_sharpness0.95.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.190958208235946</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5122962180588371</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.01320037759615914</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_contrast1.191_gamma0.512_sharpness0.013.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6.509614912284781</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9881590501647999</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.737814781017253</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_brightness6.51_contrast0.988_gamma0.738.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8683208452718921</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.4106363413445671</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.896864286518707</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_0_gamma0.868_sharpness0.411_equalization5.897.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1583,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.751832332981099</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.095258822970891</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.2772778760849292</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_T_brightness5.752_contrast1.095_sharpness0.277.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.174125442046596</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7331745076914837</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.6756037466294162</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_contrast1.174_gamma0.733_sharpness0.676.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8539773397402999</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7065796541778953</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.2941760976146819</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_contrast0.854_gamma0.707_sharpness0.294.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9883358178221953</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7424954563222339</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>26.8922428213931</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_contrast0.988_gamma0.742_equalization26.892.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.553979654525215</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7877622197393145</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4837445277788781</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_C_brightness1.554_gamma0.788_sharpness0.484.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8195116268918978</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.472857297563455</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>18.65817169857728</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_gamma0.82_sharpness0.473_equalization18.658.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.188486107823295</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6367826704403705</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>16.66338773668846</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_contrast1.188_sharpness0.637_equalization16.663.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,15 +1881,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>26.63607192307143</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.122912274431645</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.4279952175118525</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_brightness26.636_contrast1.123_sharpness0.428.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5979444792686787</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7139395576253056</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29.77784787858452</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_gamma0.598_sharpness0.714_equalization29.778.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9806612231925548</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8815778689873778</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.2749108012390398</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_contrast0.981_gamma0.882_sharpness0.275.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.80238078217663</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9772517249511437</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6325495706074336</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_brightness10.802_contrast0.977_sharpness0.633.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.056454076037489</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.6200429469299817</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>20.02215197447197</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_3_contrast1.056_gamma0.62_equalization20.022.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2087,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6152329270049681</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1237150128902219</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>23.61590087310721</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_gamma0.615_sharpness0.124_equalization23.616.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.84850484238392</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9540044825740858</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.4269632663729687</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_brightness17.849_contrast0.954_sharpness0.427.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.095813752731584</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.065941471206346</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.571668642449385</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_brightness1.096_contrast1.066_gamma0.572.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7550180808087187</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5808427727775964</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>30.43185158770113</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_gamma0.755_sharpness0.581_equalization30.432.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.104186300518811</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.994589103120761</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.3072786145014008</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_contrast1.104_gamma0.995_sharpness0.307.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14.04619057539764</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.175451413811325</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.8548996825845188</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_0_brightness14.046_contrast1.175_gamma0.855.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24.19844105660573</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9556230124357914</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5481250061395974</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_brightness24.198_contrast0.956_sharpness0.548.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.071604374312145</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.937743744640349</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.6631988039003707</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_contrast1.072_gamma0.938_sharpness0.663.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>22.24261351570175</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5370931443558025</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.3375059070174519</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_brightness22.243_gamma0.537_sharpness0.338.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5882893497915452</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.3015845697963786</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>30.91933876291992</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_gamma0.588_sharpness0.302_equalization30.919.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
